--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ФИО лица</t>
   </si>
@@ -82,27 +82,6 @@
   </si>
   <si>
     <t>Иванов14</t>
-  </si>
-  <si>
-    <t>Иванов15</t>
-  </si>
-  <si>
-    <t>Иванов16</t>
-  </si>
-  <si>
-    <t>Иванов17</t>
-  </si>
-  <si>
-    <t>Иванов18</t>
-  </si>
-  <si>
-    <t>Иванов19</t>
-  </si>
-  <si>
-    <t>Иванов20</t>
-  </si>
-  <si>
-    <t>Иванов21</t>
   </si>
   <si>
     <t>-</t>
@@ -466,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -561,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -617,62 +596,6 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>2330086193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>2330086193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>2330086193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>2330086193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>2330086193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>2330086193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>2330086193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
         <v>2330086193</v>
       </c>
     </row>
